--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_lily_real_name.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_lily_real_name.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K145"/>
+  <dimension ref="A1:K182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1322,7 +1322,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>scene3_true_name</t>
+          <t>scene2_5_no_home</t>
         </is>
       </c>
     </row>
@@ -1392,7 +1392,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>scene3_true_name</t>
+          <t>scene2_5_no_home</t>
         </is>
       </c>
     </row>
@@ -1428,14 +1428,14 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>scene3_true_name</t>
+          <t>scene2_5_no_home</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>scene3_true_name</t>
+          <t>scene2_5_no_home</t>
         </is>
       </c>
     </row>
@@ -1459,17 +1459,17 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>narr_8</t>
+          <t>narr_nh1</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>（部屋の照明が一段と暗くなり、リリィの背中にある翼が、意思を持つかのように微かに震える。）</t>
+          <t>（リリィは窓辺に歩み寄り、次元の狭間に浮かぶ歪んだ景色を眺める。）</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>（部屋の照明が一段と暗くなり、リリィの背中にある翼が、意思を持つかのように微かに震える。）</t>
+          <t>（リリィは窓辺に歩み寄り、次元の狭間に浮かぶ歪んだ景色を眺める。）</t>
         </is>
       </c>
     </row>
@@ -1488,22 +1488,22 @@
     <row r="72">
       <c r="F72" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>narr_9</t>
+          <t>lily_nh1</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>（彼女は意を決したように、あなたの耳元に唇を寄せた。）</t>
+          <t>……ねえ、あなたは知っていますか？ 私がどこから来たのか。</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>（彼女は意を決したように、あなたの耳元に唇を寄せた。）</t>
+          <t>……ねえ、あなたは知っていますか？ 私がどこから来たのか。</t>
         </is>
       </c>
     </row>
@@ -1515,29 +1515,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="F74" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>narr_10</t>
+          <t>lily_nh2</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>（サキュバスにとって、自らの「真名」を明かすことは、魂の手綱を相手に委ねることと同義である。）</t>
+          <t>私には『故郷』がないのです。他のサキュバスのように魔界で生まれたわけでもなく、どこかの確定次元から落ちてきたわけでもない。</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>（サキュバスにとって、自らの「真名」を明かすことは、魂の手綱を相手に委ねることと同義である。）</t>
+          <t>私には『故郷』がないのです。他のサキュバスのように魔界で生まれたわけでもなく、どこかの確定次元から落ちてきたわけでもない。</t>
         </is>
       </c>
     </row>
@@ -1561,17 +1561,17 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>lily_9</t>
+          <t>lily_nh3</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>……これからお話しするのは、この世界（システム）のどこにも記録されていない、私の本当の名前。</t>
+          <t>私は……この次元の狭間そのものから生まれました。崩壊した世界の残滓、漂流する感情の欠片、そして『誰かに愛されたい』という無数の魂の願い……。それらが凝縮して、私という存在が生まれた。</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>……これからお話しするのは、この世界（システム）のどこにも記録されていない、私の本当の名前。</t>
+          <t>私は……この次元の狭間そのものから生まれました。崩壊した世界の残滓、漂流する感情の欠片、そして『誰かに愛されたい』という無数の魂の願い……。それらが凝縮して、私という存在が生まれた。</t>
         </is>
       </c>
     </row>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -1595,65 +1595,85 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>lily_10</t>
+          <t>lily_nh4</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>アスタロト様すら知らない……私の魂の、一番奥にある『鍵』。</t>
+          <t>だから私には、帰る場所がない。どこの世界にも属さない。誰にも必要とされていない。……500年もの間、ずっとそう思って生きてきました。</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>アスタロト様すら知らない……私の魂の、一番奥にある『鍵』。</t>
+          <t>だから私には、帰る場所がない。どこの世界にも属さない。誰にも必要とされていない。……500年もの間、ずっとそう思って生きてきました。</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>1.0</t>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>choice2_5</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>react2_5_hard</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>lily_11</t>
+          <t>c2_5_hard</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>これを知る者は、私の全てを支配し、同時に私の運命を一生背負うことになります。……覚悟はいいかしら？</t>
+          <t>……それは、辛かっただろう</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>これを知る者は、私の全てを支配し、同時に私の運命を一生背負うことになります。……覚悟はいいかしら？</t>
+          <t>……それは、辛かっただろう</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>choice3</t>
+          <t>react2_5_place</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>c2_5_place</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>俺がお前の居場所になる</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>俺がお前の居場所になる</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>react3_tell</t>
+          <t>react2_5_hand</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -1663,261 +1683,256 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>c3_tell</t>
+          <t>c2_5_hand</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>……聞かせてくれ</t>
+          <t>（無言で手を握る）</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>……聞かせてくれ</t>
+          <t>（無言で手を握る）</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>react3_carry</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>c3_carry</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>お前の全てを、背負わせてくれ</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>お前の全てを、背負わせてくれ</t>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>react2_5_hard</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>react3_nod</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>c3_nod</t>
+          <t>lily_nh_r1</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>（無言で頷く）</t>
+          <t>……ふふ、辛いと思う余裕すらありませんでした。それが当たり前でしたから。</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>（無言で頷く）</t>
+          <t>……ふふ、辛いと思う余裕すらありませんでした。それが当たり前でしたから。</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>react3_tell</t>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>scene2_5_cont</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>lily_r7</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>……ふふ、やっぱり、あなたはそう言ってくれるのですね。</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>……ふふ、やっぱり、あなたはそう言ってくれるのですね。</t>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>react2_5_place</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>name_revelation</t>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>lily_nh_r2</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>……！ あなた、本当に……。</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>……！ あなた、本当に……。</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>react3_carry</t>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="F89" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>lily_r8</t>
+          <t>narr_nh2</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>……！ あなた、本当に……。</t>
+          <t>（リリィは涙を堪える。）</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>……！ あなた、本当に……。</t>
+          <t>（リリィは涙を堪える。）</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>scene2_5_cont</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>narr_11</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>（リリィは涙を流し、微笑む。）</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>（リリィは涙を流し、微笑む。）</t>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>react2_5_hand</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>name_revelation</t>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>lily_nh_r3</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>……温かい。あなたの手は、いつも温かいですね……。</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>……温かい。あなたの手は、いつも温かいですね……。</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>react3_nod</t>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>scene2_5_cont</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>lily_r9</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>……無口ですが、その瞳は真剣ですね。では、お伝えします。</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>……無口ですが、その瞳は真剣ですね。では、お伝えします。</t>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>scene2_5_cont</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>name_revelation</t>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>lily_nh5</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>あなたは違う。あなたには、イルヴァという帰る場所がある。神々との繋がりがあって、いつでもここを去ることができる。</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>あなたは違う。あなたには、イルヴァという帰る場所がある。神々との繋がりがあって、いつでもここを去ることができる。</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>name_revelation</t>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>lily_nh6</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>……最初、それが羨ましかった。妬ましかった。『どうせこの人も、いつかはここを去っていく。私を置いて』と。</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>……最初、それが羨ましかった。妬ましかった。『どうせこの人も、いつかはここを去っていく。私を置いて』と。</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
     </row>
-    <row r="98">
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>lily_12</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>……私の名は、『リリアリス・ヴォイド・テンプテイション』。</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>……私の名は、『リリアリス・ヴォイド・テンプテイション』。</t>
-        </is>
-      </c>
-    </row>
     <row r="99">
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>shake</t>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>lily_nh7</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>でも、あなたは帰らなかった。帰れるのに、ここに留まり続けた。バルガスさんのために戦い、私のために怒り……。『義務』ではなく『選択』として、ここにいてくれた。</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>でも、あなたは帰らなかった。帰れるのに、ここに留まり続けた。バルガスさんのために戦い、私のために怒り……。『義務』ではなく『選択』として、ここにいてくれた。</t>
         </is>
       </c>
     </row>
@@ -1936,22 +1951,22 @@
     <row r="101">
       <c r="F101" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>narr_12</t>
+          <t>lily_nh8</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>（リリィの周囲に魔力の波動が広がり、ルーン文字が浮かび上がる。）</t>
+          <t>それが、どれほど私を救ったか……あなたには分からないでしょうね。帰る場所がある人に、『それでも傍にいる』と選ばれること。それは、居場所のない私にとって、初めて与えられた『居場所』でした。</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>（リリィの周囲に魔力の波動が広がり、ルーン文字が浮かび上がる。）</t>
+          <t>それが、どれほど私を救ったか……あなたには分からないでしょうね。帰る場所がある人に、『それでも傍にいる』と選ばれること。それは、居場所のない私にとって、初めて与えられた『居場所』でした。</t>
         </is>
       </c>
     </row>
@@ -1963,159 +1978,174 @@
       </c>
     </row>
     <row r="103">
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>narr_nh3</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>（リリィは涙を流しながら、微笑む。）</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>（リリィは涙を流しながら、微笑む。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>scene3_true_name</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>scene3_true_name</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Confession");             var data = SoundManager.current.GetData("BGM/Lily_Confession");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Confession");             }</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>narr_8</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>（部屋の照明が一段と暗くなり、リリィの背中にある翼が、意思を持つかのように微かに震える。）</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>（部屋の照明が一段と暗くなり、リリィの背中にある翼が、意思を持つかのように微かに震える。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>narr_9</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>（彼女は意を決したように、あなたの耳元に唇を寄せた。）</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>（彼女は意を決したように、あなたの耳元に唇を寄せた。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
     </row>
-    <row r="104">
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>lily_13</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>……さあ、刻みなさい。あなたの記憶に、そしてその魂に。</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>……さあ、刻みなさい。あなたの記憶に、そしてその魂に。</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
+    <row r="111">
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>narr_10</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>（サキュバスにとって、自らの「真名」を明かすことは、魂の手綱を相手に委ねることと同義である。）</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>（サキュバスにとって、自らの「真名」を明かすことは、魂の手綱を相手に委ねることと同義である。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
     </row>
-    <row r="106">
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>lily_14</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>これからは、事務的な受付嬢（マネージャー）としてではなく……</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>これからは、事務的な受付嬢（マネージャー）としてではなく……</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>lily_15</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>あなたの行く末を地獄の果てまで共にする、『共犯者』として隣に置かせてちょうだい。</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>あなたの行く末を地獄の果てまで共にする、『共犯者』として隣に置かせてちょうだい。</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>scene4_contract</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>scene4_contract</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sacred_Triumph_Special");             var data = SoundManager.current.GetData("BGM/Emotional_Sacred_Triumph_Special");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sacred_Triumph_Special");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>narr_13</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>（彼女の真名が告げられた瞬間、あなたの視界に未知のルーンが浮かび上がり、リリィの魔力があなたの体内に流れ込んでくる。）</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>（彼女の真名が告げられた瞬間、あなたの視界に未知のルーンが浮かび上がり、リリィの魔力があなたの体内に流れ込んでくる。）</t>
-        </is>
-      </c>
-    </row>
     <row r="113">
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>shake</t>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>lily_9</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>……これからお話しするのは、この世界（システム）のどこにも記録されていない、私の本当の名前。</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>……これからお話しするのは、この世界（システム）のどこにも記録されていない、私の本当の名前。</t>
         </is>
       </c>
     </row>
@@ -2127,29 +2157,29 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="F115" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>narr_14</t>
+          <t>lily_10</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>（それは契約であり、守護であり、深い愛情の証だった。）</t>
+          <t>アスタロト様すら知らない……私の魂の、一番奥にある『鍵』。</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>（それは契約であり、守護であり、深い愛情の証だった。）</t>
+          <t>アスタロト様すら知らない……私の魂の、一番奥にある『鍵』。</t>
         </is>
       </c>
     </row>
@@ -2173,426 +2203,970 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>lily_16</t>
+          <t>lily_11</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>……ふふ、これで逃げられなくなりましたね。</t>
+          <t>これを知る者は、私の全てを支配し、同時に私の運命を一生背負うことになります。……覚悟はいいかしら？</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>……ふふ、これで逃げられなくなりましたね。</t>
+          <t>これを知る者は、私の全てを支配し、同時に私の運命を一生背負うことになります。……覚悟はいいかしら？</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>choice3</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>react3_tell</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>c3_tell</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>……聞かせてくれ</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>……聞かせてくれ</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>react3_carry</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>c3_carry</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>お前の全てを、背負わせてくれ</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>お前の全てを、背負わせてくれ</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>react3_nod</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>c3_nod</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>（無言で頷く）</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>（無言で頷く）</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>react3_tell</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>lily_r7</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>……ふふ、やっぱり、あなたはそう言ってくれるのですね。</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>……ふふ、やっぱり、あなたはそう言ってくれるのですね。</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>name_revelation</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>react3_carry</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>lily_r8</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>……！ あなた、本当に……。</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>……！ あなた、本当に……。</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="119">
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>lily_17</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>アスタロト様の待つ頂上で、何が起きようとも……あなたの背中は私が守ります。</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>アスタロト様の待つ頂上で、何が起きようとも……あなたの背中は私が守ります。</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
+    <row r="128">
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>narr_11</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>（リリィは涙を流し、微笑む。）</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>（リリィは涙を流し、微笑む。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>name_revelation</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>react3_nod</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>lily_r9</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>……無口ですが、その瞳は真剣ですね。では、お伝えします。</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>……無口ですが、その瞳は真剣ですね。では、お伝えします。</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>name_revelation</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>name_revelation</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
     </row>
-    <row r="121">
-      <c r="F121" t="inlineStr">
+    <row r="135">
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>lily_12</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>……私の名は、『リリアリス・ヴォイド・テンプテイション』。</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>……私の名は、『リリアリス・ヴォイド・テンプテイション』。</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>shake</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="F138" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>narr_15</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>（リリィはあなたの頬に手を添え、優しく口づけをする。）</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>（リリィはあなたの頬に手を添え、優しく口づけをする。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>shake</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>lily_18</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>さあ、行きましょう。ランクS『屠竜者』。あなたの伝説に、私の名前を添えて。</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>さあ、行きましょう。ランクS『屠竜者』。あなたの伝説に、私の名前を添えて。</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>final_choice</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>final_thanks</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>c_final_thanks</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>……ありがとう、リリアリス</t>
-        </is>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>……ありがとう、リリアリス</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>final_protect</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>c_final_protect</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>お前を、必ず守る</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>お前を、必ず守る</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>final_embrace</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>c_final_embrace</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>（無言で抱きしめる）</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>（無言で抱きしめる）</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>final_thanks</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>lily_r10</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>……！ その名で呼ばれるのは、初めてです。……嬉しいわ。</t>
-        </is>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>……！ その名で呼ばれるのは、初めてです。……嬉しいわ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>final_protect</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>lily_r11</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>ふふ、守るのは私の役目ですよ。でも……ありがとう。</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>ふふ、守るのは私の役目ですよ。でも……ありがとう。</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>final_embrace</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>lily_r12</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>……あぁ、温かい。あなたの温もりが、私を満たしてくれる……。</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>……あぁ、温かい。あなたの温もりが、私を満たしてくれる……。</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>ending</t>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>narr_12</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>（リリィの周囲に魔力の波動が広がり、ルーン文字が浮かび上がる。）</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>（リリィの周囲に魔力の波動が広がり、ルーン文字が浮かび上がる。）</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="D139" t="inlineStr">
         <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>chitsii.arena.rel.lily,100</t>
+          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="D140" t="inlineStr">
         <is>
-          <t>setFlag</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.lily_true_name,1</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="F141" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>sys_buff</t>
+          <t>lily_13</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>【システム】『真名の契約者』を獲得しました。</t>
+          <t>……さあ、刻みなさい。あなたの記憶に、そしてその魂に。</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>【システム】『真名の契約者』を獲得しました。</t>
+          <t>……さあ、刻みなさい。あなたの記憶に、そしてその魂に。</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>sys_title</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>【システム】称号『リリアリスの伴侶』を獲得しました。</t>
-        </is>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>【システム】称号『リリアリスの伴侶』を獲得しました。</t>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] TODO: バフ付与 - リリィ支援魔法+50%, 召喚可能, 魅了/精神汚染無効");</t>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>lily_14</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>これからは、事務的な受付嬢（マネージャー）としてではなく……</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>これからは、事務的な受付嬢（マネージャー）としてではなく……</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="D144" t="inlineStr">
         <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>lily_15</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>あなたの行く末を地獄の果てまで共にする、『共犯者』として隣に置かせてちょうだい。</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>あなたの行く末を地獄の果てまで共にする、『共犯者』として隣に置かせてちょうだい。</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>scene4_contract</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>scene4_contract</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="D148" t="inlineStr">
+        <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sacred_Triumph_Special");             var data = SoundManager.current.GetData("BGM/Emotional_Sacred_Triumph_Special");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sacred_Triumph_Special");             }</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>narr_13</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>（彼女の真名が告げられた瞬間、あなたの視界に未知のルーンが浮かび上がり、リリィの魔力があなたの体内に流れ込んでくる。）</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>（彼女の真名が告げられた瞬間、あなたの視界に未知のルーンが浮かび上がり、リリィの魔力があなたの体内に流れ込んでくる。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>shake</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>narr_14</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>（それは契約であり、守護であり、深い愛情の証だった。）</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>（それは契約であり、守護であり、深い愛情の証だった。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>lily_16</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>……ふふ、これで逃げられなくなりましたね。</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>……ふふ、これで逃げられなくなりましたね。</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>lily_17</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>アスタロト様の待つ頂上で、何が起きようとも……あなたの背中は私が守ります。</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>アスタロト様の待つ頂上で、何が起きようとも……あなたの背中は私が守ります。</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>narr_15</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>（リリィはあなたの頬に手を添え、優しく口づけをする。）</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>（リリィはあなたの頬に手を添え、優しく口づけをする。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>shake</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>lily_18</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>さあ、行きましょう。ランクS『屠竜者』。あなたの伝説に、私の名前を添えて。</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>さあ、行きましょう。ランクS『屠竜者』。あなたの伝説に、私の名前を添えて。</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>final_choice</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>final_thanks</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>c_final_thanks</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>……ありがとう、リリアリス</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>……ありがとう、リリアリス</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>final_protect</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>c_final_protect</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>お前を、必ず守る</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>お前を、必ず守る</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>final_embrace</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>c_final_embrace</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>（無言で抱きしめる）</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>（無言で抱きしめる）</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>final_thanks</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>lily_r10</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>……！ その名で呼ばれるのは、初めてです。……嬉しいわ。</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>……！ その名で呼ばれるのは、初めてです。……嬉しいわ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>ending</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>final_protect</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>lily_r11</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>ふふ、守るのは私の役目ですよ。でも……ありがとう。</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>ふふ、守るのは私の役目ですよ。でも……ありがとう。</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>ending</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>final_embrace</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>lily_r12</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>……あぁ、温かい。あなたの温もりが、私を満たしてくれる……。</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>……あぁ、温かい。あなたの温もりが、私を満たしてくれる……。</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>ending</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>ending</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>chitsii.arena.rel.lily,100</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.lily_true_name,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>sys_buff</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>【システム】『真名の契約者』を獲得しました。</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>【システム】『真名の契約者』を獲得しました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>sys_title</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>【システム】称号『リリアリスの伴侶』を獲得しました。</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>【システム】称号『リリアリスの伴侶』を獲得しました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] TODO: バフ付与 - リリィ支援魔法+50%, 召喚可能, 魅了/精神汚染無効");</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
         <is>
           <t>UnityEngine.Debug.Log("[SukutsuArena] TODO: 称号付与 - スタミナ/SAN値回復速度1.5倍");</t>
         </is>
       </c>
     </row>
-    <row r="145">
-      <c r="D145" t="inlineStr">
+    <row r="182">
+      <c r="D182" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_lily_real_name.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_lily_real_name.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K136"/>
+  <dimension ref="A1:K133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,38 +578,68 @@
       </c>
     </row>
     <row r="13">
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>lily_1</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>……おかえりなさい。バルガスさんは、今頃泥のように眠っています。</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>……おかえりなさい。バルガスさんは、今頃泥のように眠っています。</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>lily_2</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>あんなに安らかな寝顔を見たのは、私も初めてかもしれません。……ふふ、本当に、あなたという人は。</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>あんなに安らかな寝顔を見たのは、私も初めてかもしれません。……ふふ、本当に、あなたという人は。</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>narr_4</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>（彼女は酒瓶を置き、あなたに近づく。）</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>（彼女は酒瓶を置き、あなたに近づく。）</t>
         </is>
       </c>
     </row>
@@ -621,17 +651,17 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>lily_1</t>
+          <t>lily_3</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>……おかえりなさい。バルガスさんは、今頃泥のように眠っています。</t>
+          <t>バルガスさんを助けてくれたこと、お礼を言わせてください。……でも、それは単なる『感謝』ではありません。</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>……おかえりなさい。バルガスさんは、今頃泥のように眠っています。</t>
+          <t>バルガスさんを助けてくれたこと、お礼を言わせてください。……でも、それは単なる『感謝』ではありません。</t>
         </is>
       </c>
     </row>
@@ -643,178 +673,148 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>lily_2</t>
+          <t>lily_4</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>あんなに安らかな寝顔を見たのは、私も初めてかもしれません。……ふふ、本当に、あなたという人は。</t>
+          <t>あなたが今日、あの残酷な喝采を黙らせた時……私の中で、何かが音を立てて崩れたのです。</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>あんなに安らかな寝顔を見たのは、私も初めてかもしれません。……ふふ、本当に、あなたという人は。</t>
+          <t>あなたが今日、あの残酷な喝采を黙らせた時……私の中で、何かが音を立てて崩れたのです。</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>narr_4</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>（彼女は酒瓶を置き、あなたに近づく。）</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>（彼女は酒瓶を置き、あなたに近づく。）</t>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>choice1</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>react1_what</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>lily_3</t>
+          <t>c1_what</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>バルガスさんを助けてくれたこと、お礼を言わせてください。……でも、それは単なる『感謝』ではありません。</t>
+          <t>……何が崩れたんだ？</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>バルガスさんを助けてくれたこと、お礼を言わせてください。……でも、それは単なる『感謝』ではありません。</t>
+          <t>……何が崩れたんだ？</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>react1_want</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>lily_4</t>
+          <t>c1_want</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>あなたが今日、あの残酷な喝采を黙らせた時……私の中で、何かが音を立てて崩れたのです。</t>
+          <t>お前は、俺に何を求めている？</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>あなたが今日、あの残酷な喝采を黙らせた時……私の中で、何かが音を立てて崩れたのです。</t>
+          <t>お前は、俺に何を求めている？</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>choice1</t>
+          <t>react1_silent</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>c1_silent</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>（無言で聞く）</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>（無言で聞く）</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="inlineStr">
+      <c r="A22" t="inlineStr">
         <is>
           <t>react1_what</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>c1_what</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>……何が崩れたんだ？</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>……何が崩れたんだ？</t>
-        </is>
-      </c>
     </row>
     <row r="23">
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>react1_want</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>c1_want</t>
+          <t>lily_r1</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>お前は、俺に何を求めている？</t>
+          <t>私の……『観察者』としての仮面です。もう、あなたを冷静に見ることができません。</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>お前は、俺に何を求めている？</t>
+          <t>私の……『観察者』としての仮面です。もう、あなたを冷静に見ることができません。</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>react1_silent</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>c1_silent</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>（無言で聞く）</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>（無言で聞く）</t>
+          <t>scene2_observer_end</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>react1_what</t>
+          <t>react1_want</t>
         </is>
       </c>
     </row>
@@ -826,17 +826,17 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>lily_r1</t>
+          <t>lily_r2</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>私の……『観察者』としての仮面です。もう、あなたを冷静に見ることができません。</t>
+          <t>……全てです。あなたの全てを、私に委ねてほしい。</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>私の……『観察者』としての仮面です。もう、あなたを冷静に見ることができません。</t>
+          <t>……全てです。あなたの全てを、私に委ねてほしい。</t>
         </is>
       </c>
     </row>
@@ -850,7 +850,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>react1_want</t>
+          <t>react1_silent</t>
         </is>
       </c>
     </row>
@@ -862,17 +862,17 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>lily_r2</t>
+          <t>lily_r3</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>……全てです。あなたの全てを、私に委ねてほしい。</t>
+          <t>……無口ですが、その瞳は饒舌ですね。続けさせていただきます。</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>……全てです。あなたの全てを、私に委ねてほしい。</t>
+          <t>……無口ですが、その瞳は饒舌ですね。続けさせていただきます。</t>
         </is>
       </c>
     </row>
@@ -886,99 +886,129 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>react1_silent</t>
+          <t>scene2_observer_end</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>lily_r3</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>……無口ですが、その瞳は饒舌ですね。続けさせていただきます。</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>……無口ですが、その瞳は饒舌ですね。続けさせていただきます。</t>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Seductive_Danger");             var data = SoundManager.current.GetData("BGM/Lily_Seductive_Danger");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Seductive_Danger");             }</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>scene2_observer_end</t>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>narr_5</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>（リリィはあなたの至近距離まで歩み寄り、その冷たいはずの指先であなたの胸元に触れた。）</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>（リリィはあなたの至近距離まで歩み寄り、その冷たいはずの指先であなたの胸元に触れた。）</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>scene2_observer_end</t>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>narr_6</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>（そこには「黄金の戦鬼」としての力強い鼓動が刻まれている。）</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>（そこには「黄金の戦鬼」としての力強い鼓動が刻まれている。）</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Seductive_Danger");             var data = SoundManager.current.GetData("BGM/Lily_Seductive_Danger");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Seductive_Danger");             }</t>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>lily_5</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>私はサキュバス。このアリーナに囚われた魂が、絶望に染まり、最後の一滴まで絞り出されるのを見届ける『観察者』でした。</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>私はサキュバス。このアリーナに囚われた魂が、絶望に染まり、最後の一滴まで絞り出されるのを見届ける『観察者』でした。</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>narr_5</t>
+          <t>lily_6</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>（リリィはあなたの至近距離まで歩み寄り、その冷たいはずの指先であなたの胸元に触れた。）</t>
+          <t>……あなたも、その一人になるはずだった。</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>（リリィはあなたの至近距離まで歩み寄り、その冷たいはずの指先であなたの胸元に触れた。）</t>
+          <t>……あなたも、その一人になるはずだった。</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>narr_6</t>
+          <t>lily_7</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>（そこには「黄金の戦鬼」としての力強い鼓動が刻まれている。）</t>
+          <t>けれど、あなたは強くなるほどに優しく、孤独になるほどに誰かの手を握ろうとした。</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>（そこには「黄金の戦鬼」としての力強い鼓動が刻まれている。）</t>
+          <t>けれど、あなたは強くなるほどに優しく、孤独になるほどに誰かの手を握ろうとした。</t>
         </is>
       </c>
     </row>
@@ -990,178 +1020,148 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>lily_5</t>
+          <t>lily_8</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>私はサキュバス。このアリーナに囚われた魂が、絶望に染まり、最後の一滴まで絞り出されるのを見届ける『観察者』でした。</t>
+          <t>……その姿を特等席で眺めているうちに、私の方が、あなたの魂に『魅了』されてしまったようです。</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>私はサキュバス。このアリーナに囚われた魂が、絶望に染まり、最後の一滴まで絞り出されるのを見届ける『観察者』でした。</t>
+          <t>……その姿を特等席で眺めているうちに、私の方が、あなたの魂に『魅了』されてしまったようです。</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>lily_6</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>……あなたも、その一人になるはずだった。</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>……あなたも、その一人になるはずだった。</t>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>choice2</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>react2_enchanted</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>lily_7</t>
+          <t>c2_enchanted</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>けれど、あなたは強くなるほどに優しく、孤独になるほどに誰かの手を握ろうとした。</t>
+          <t>魅了……？</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>けれど、あなたは強くなるほどに優しく、孤独になるほどに誰かの手を握ろうとした。</t>
+          <t>魅了……？</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>react2_me_too</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>lily_8</t>
+          <t>c2_me_too</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>……その姿を特等席で眺めているうちに、私の方が、あなたの魂に『魅了』されてしまったようです。</t>
+          <t>俺も、お前に魅了されている</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>……その姿を特等席で眺めているうちに、私の方が、あなたの魂に『魅了』されてしまったようです。</t>
+          <t>俺も、お前に魅了されている</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>choice2</t>
+          <t>react2_touch</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>c2_touch</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>（無言で頬に触れる）</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>（無言で頬に触れる）</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="inlineStr">
+      <c r="A43" t="inlineStr">
         <is>
           <t>react2_enchanted</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>c2_enchanted</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>魅了……？</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>魅了……？</t>
-        </is>
-      </c>
     </row>
     <row r="44">
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>react2_me_too</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>c2_me_too</t>
+          <t>lily_r4</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>俺も、お前に魅了されている</t>
+          <t>ええ。サキュバスが、人間に魅了される……滑稽でしょう？</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>俺も、お前に魅了されている</t>
+          <t>ええ。サキュバスが、人間に魅了される……滑稽でしょう？</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>react2_touch</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>c2_touch</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>（無言で頬に触れる）</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>（無言で頬に触れる）</t>
+          <t>scene2_5_no_home</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>react2_enchanted</t>
+          <t>react2_me_too</t>
         </is>
       </c>
     </row>
@@ -1173,75 +1173,75 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>lily_r4</t>
+          <t>lily_r5</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>ええ。サキュバスが、人間に魅了される……滑稽でしょう？</t>
+          <t>……！ あなた、そんな……。</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>ええ。サキュバスが、人間に魅了される……滑稽でしょう？</t>
+          <t>……！ あなた、そんな……。</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="inlineStr">
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>narr_7</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>（リリィは頬を染め、目を逸らす。）</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>（リリィは頬を染め、目を逸らす。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="inlineStr">
         <is>
           <t>scene2_5_no_home</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>react2_me_too</t>
-        </is>
-      </c>
-    </row>
     <row r="50">
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>lily_r5</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>……！ あなた、そんな……。</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>……！ あなた、そんな……。</t>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>react2_touch</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="F51" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>narr_7</t>
+          <t>lily_r6</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>（リリィは頬を染め、目を逸らす。）</t>
+          <t>……あぁ、温かい。あなたの手は、いつも温かいですね。</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>（リリィは頬を染め、目を逸らす。）</t>
+          <t>……あぁ、温かい。あなたの手は、いつも温かいですね。</t>
         </is>
       </c>
     </row>
@@ -1255,77 +1255,107 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>react2_touch</t>
+          <t>scene2_5_no_home</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>lily_r6</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>……あぁ、温かい。あなたの手は、いつも温かいですね。</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>……あぁ、温かい。あなたの手は、いつも温かいですね。</t>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Confession");             var data = SoundManager.current.GetData("BGM/Lily_Confession");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Confession");             }</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>scene2_5_no_home</t>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>narr_nh1</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>（リリィは窓辺に歩み寄り、次元の狭間に浮かぶ歪んだ景色を眺める。）</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>（リリィは窓辺に歩み寄り、次元の狭間に浮かぶ歪んだ景色を眺める。）</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>scene2_5_no_home</t>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>lily_nh1</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>……ねえ、あなたは知っていますか？ 私がどこから来たのか。</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>……ねえ、あなたは知っていますか？ 私がどこから来たのか。</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Confession");             var data = SoundManager.current.GetData("BGM/Lily_Confession");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Confession");             }</t>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>lily_nh2</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>私には『故郷』がないのです。他のサキュバスのように、どこかの確定次元から落ちてきたわけではありません。</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>私には『故郷』がないのです。他のサキュバスのように、どこかの確定次元から落ちてきたわけではありません。</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="F58" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>narr_nh1</t>
+          <t>lily_nh3</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>（リリィは窓辺に歩み寄り、次元の狭間に浮かぶ歪んだ景色を眺める。）</t>
+          <t>私は……この次元の狭間そのものから生まれました。崩壊した世界の残滓、漂流する感情の欠片、そして『誰かに愛されたい』という無数の魂の願い……。それらが凝縮して、私という存在が生まれた。</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>（リリィは窓辺に歩み寄り、次元の狭間に浮かぶ歪んだ景色を眺める。）</t>
+          <t>私は……この次元の狭間そのものから生まれました。崩壊した世界の残滓、漂流する感情の欠片、そして『誰かに愛されたい』という無数の魂の願い……。それらが凝縮して、私という存在が生まれた。</t>
         </is>
       </c>
     </row>
@@ -1337,151 +1367,121 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>lily_nh1</t>
+          <t>lily_nh4</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>……ねえ、あなたは知っていますか？ 私がどこから来たのか。</t>
+          <t>だから私には、帰る場所がない。どこの世界にも属さない。誰にも必要とされていない。……500年もの間、ずっとそう思って生きてきました。</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>……ねえ、あなたは知っていますか？ 私がどこから来たのか。</t>
+          <t>だから私には、帰る場所がない。どこの世界にも属さない。誰にも必要とされていない。……500年もの間、ずっとそう思って生きてきました。</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>lily_nh2</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>私には『故郷』がないのです。他のサキュバスのように、どこかの確定次元から落ちてきたわけではありません。</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>私には『故郷』がないのです。他のサキュバスのように、どこかの確定次元から落ちてきたわけではありません。</t>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>choice2_5</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>react2_5_hard</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>lily_nh3</t>
+          <t>c2_5_hard</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>私は……この次元の狭間そのものから生まれました。崩壊した世界の残滓、漂流する感情の欠片、そして『誰かに愛されたい』という無数の魂の願い……。それらが凝縮して、私という存在が生まれた。</t>
+          <t>……それは、辛かっただろう</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>私は……この次元の狭間そのものから生まれました。崩壊した世界の残滓、漂流する感情の欠片、そして『誰かに愛されたい』という無数の魂の願い……。それらが凝縮して、私という存在が生まれた。</t>
+          <t>……それは、辛かっただろう</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>react2_5_hand</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>lily_nh4</t>
+          <t>c2_5_hand</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>だから私には、帰る場所がない。どこの世界にも属さない。誰にも必要とされていない。……500年もの間、ずっとそう思って生きてきました。</t>
+          <t>（無言で手を握る）</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>だから私には、帰る場所がない。どこの世界にも属さない。誰にも必要とされていない。……500年もの間、ずっとそう思って生きてきました。</t>
+          <t>（無言で手を握る）</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>choice2_5</t>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>react2_5_hard</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>react2_5_hard</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>c2_5_hard</t>
+          <t>lily_nh_r1</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>……それは、辛かっただろう</t>
+          <t>……ふふ、辛いと思う余裕すらありませんでした。それが当たり前でしたから。</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>……それは、辛かっただろう</t>
+          <t>……ふふ、辛いと思う余裕すらありませんでした。それが当たり前でしたから。</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>react2_5_hand</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>c2_5_hand</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>（無言で手を握る）</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>（無言で手を握る）</t>
+          <t>scene2_5_cont</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>react2_5_hard</t>
+          <t>react2_5_hand</t>
         </is>
       </c>
     </row>
@@ -1493,17 +1493,17 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>lily_nh_r1</t>
+          <t>lily_nh_r3</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>……ふふ、辛いと思う余裕すらありませんでした。それが当たり前でしたから。</t>
+          <t>……温かい。あなたの手は、いつも温かいですね……。</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>……ふふ、辛いと思う余裕すらありませんでした。それが当たり前でしたから。</t>
+          <t>……温かい。あなたの手は、いつも温かいですね……。</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>react2_5_hand</t>
+          <t>scene2_5_cont</t>
         </is>
       </c>
     </row>
@@ -1529,31 +1529,61 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>lily_nh_r3</t>
+          <t>lily_nh5</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>……温かい。あなたの手は、いつも温かいですね……。</t>
+          <t>あなたは違う。あなたには、イルヴァという帰る場所がある。神々との繋がりがあって、いつでもここを去ることができる。</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>……温かい。あなたの手は、いつも温かいですね……。</t>
+          <t>あなたは違う。あなたには、イルヴァという帰る場所がある。神々との繋がりがあって、いつでもここを去ることができる。</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>scene2_5_cont</t>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>lily_nh6</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>……最初、それが羨ましかった。妬ましかった。『どうせこの人も、いつかはここを去っていく。私を置いて』と。</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>……最初、それが羨ましかった。妬ましかった。『どうせこの人も、いつかはここを去っていく。私を置いて』と。</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>scene2_5_cont</t>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>lily_nh7</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>でも、あなたは一度去っても、また帰ってきてくれる。バルガスさんのために戦い、私のために怒り……。『義務』ではなく『選択』として、ここにいてくれた。</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>でも、あなたは一度去っても、また帰ってきてくれる。バルガスさんのために戦い、私のために怒り……。『義務』ではなく『選択』として、ここにいてくれた。</t>
         </is>
       </c>
     </row>
@@ -1565,387 +1595,357 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>lily_nh5</t>
+          <t>lily_nh8</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>あなたは違う。あなたには、イルヴァという帰る場所がある。神々との繋がりがあって、いつでもここを去ることができる。</t>
+          <t>それが、どれほど私を救ったか……あなたには分からないでしょうね。帰る場所がある人に、『それでも傍にいる』と選ばれること。それは、居場所のない私にとって、初めて与えられた『居場所』でした。</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>あなたは違う。あなたには、イルヴァという帰る場所がある。神々との繋がりがあって、いつでもここを去ることができる。</t>
+          <t>それが、どれほど私を救ったか……あなたには分からないでしょうね。帰る場所がある人に、『それでも傍にいる』と選ばれること。それは、居場所のない私にとって、初めて与えられた『居場所』でした。</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>lily_nh6</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>……最初、それが羨ましかった。妬ましかった。『どうせこの人も、いつかはここを去っていく。私を置いて』と。</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>……最初、それが羨ましかった。妬ましかった。『どうせこの人も、いつかはここを去っていく。私を置いて』と。</t>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="F75" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>lily_nh7</t>
+          <t>narr_nh3</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>でも、あなたは一度去っても、また帰ってきてくれる。バルガスさんのために戦い、私のために怒り……。『義務』ではなく『選択』として、ここにいてくれた。</t>
+          <t>（リリィは涙を流しながら、微笑む。）</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>でも、あなたは一度去っても、また帰ってきてくれる。バルガスさんのために戦い、私のために怒り……。『義務』ではなく『選択』として、ここにいてくれた。</t>
+          <t>（リリィは涙を流しながら、微笑む。）</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>lily_nh8</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>それが、どれほど私を救ったか……あなたには分からないでしょうね。帰る場所がある人に、『それでも傍にいる』と選ばれること。それは、居場所のない私にとって、初めて与えられた『居場所』でした。</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>それが、どれほど私を救ったか……あなたには分からないでしょうね。帰る場所がある人に、『それでも傍にいる』と選ばれること。それは、居場所のない私にとって、初めて与えられた『居場所』でした。</t>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>scene3_true_name</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>shake</t>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>scene3_true_name</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="F78" t="inlineStr">
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Confession");             var data = SoundManager.current.GetData("BGM/Lily_Confession");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Confession");             }</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="F79" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>narr_nh3</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>（リリィは涙を流しながら、微笑む。）</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>（リリィは涙を流しながら、微笑む。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>scene3_true_name</t>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>narr_8</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>（部屋の照明が一段と暗くなり、リリィの背中にある翼が、意思を持つかのように微かに震える。）</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>（部屋の照明が一段と暗くなり、リリィの背中にある翼が、意思を持つかのように微かに震える。）</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>scene3_true_name</t>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>narr_9</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>（彼女は意を決したように、あなたの耳元に唇を寄せた。）</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>（彼女は意を決したように、あなたの耳元に唇を寄せた。）</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Confession");             var data = SoundManager.current.GetData("BGM/Lily_Confession");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Confession");             }</t>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>narr_10</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>（サキュバスにとって、自らの「真名」を明かすことは、魂の手綱を相手に委ねることと同義である。）</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>（サキュバスにとって、自らの「真名」を明かすことは、魂の手綱を相手に委ねることと同義である。）</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="F82" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>narr_8</t>
+          <t>lily_9</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>（部屋の照明が一段と暗くなり、リリィの背中にある翼が、意思を持つかのように微かに震える。）</t>
+          <t>……これからお話しするのは、この世界のどこにも記録されていない、私の本当の名前。</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>（部屋の照明が一段と暗くなり、リリィの背中にある翼が、意思を持つかのように微かに震える。）</t>
+          <t>……これからお話しするのは、この世界のどこにも記録されていない、私の本当の名前。</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="F83" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>narr_9</t>
+          <t>lily_10</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>（彼女は意を決したように、あなたの耳元に唇を寄せた。）</t>
+          <t>アスタロト様すら知らない……私の魂の、一番奥にある『鍵』。</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>（彼女は意を決したように、あなたの耳元に唇を寄せた。）</t>
+          <t>アスタロト様すら知らない……私の魂の、一番奥にある『鍵』。</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="F84" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>narr_10</t>
+          <t>lily_11</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>（サキュバスにとって、自らの「真名」を明かすことは、魂の手綱を相手に委ねることと同義である。）</t>
+          <t>これを知る者は、私の全てを支配し、同時に私の運命を一生背負うことになります。……あなたに知っておいてもらいたいのです。</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>（サキュバスにとって、自らの「真名」を明かすことは、魂の手綱を相手に委ねることと同義である。）</t>
+          <t>これを知る者は、私の全てを支配し、同時に私の運命を一生背負うことになります。……あなたに知っておいてもらいたいのです。</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>lily_9</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>……これからお話しするのは、この世界のどこにも記録されていない、私の本当の名前。</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>……これからお話しするのは、この世界のどこにも記録されていない、私の本当の名前。</t>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>choice3</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>react3_tell</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>lily_10</t>
+          <t>c3_tell</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>アスタロト様すら知らない……私の魂の、一番奥にある『鍵』。</t>
+          <t>……聞かせてくれ</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>アスタロト様すら知らない……私の魂の、一番奥にある『鍵』。</t>
+          <t>……聞かせてくれ</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>react3_carry</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>lily_11</t>
+          <t>c3_carry</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>これを知る者は、私の全てを支配し、同時に私の運命を一生背負うことになります。……あなたに知っておいてもらいたいのです。</t>
+          <t>お前の全てを、背負わせてくれ</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>これを知る者は、私の全てを支配し、同時に私の運命を一生背負うことになります。……あなたに知っておいてもらいたいのです。</t>
+          <t>お前の全てを、背負わせてくれ</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>choice3</t>
+          <t>react3_nod</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>c3_nod</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>（無言で頷く）</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>（無言で頷く）</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="inlineStr">
+      <c r="A89" t="inlineStr">
         <is>
           <t>react3_tell</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>c3_tell</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>……聞かせてくれ</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>……聞かせてくれ</t>
-        </is>
-      </c>
     </row>
     <row r="90">
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>react3_carry</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>c3_carry</t>
+          <t>lily_r7</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>お前の全てを、背負わせてくれ</t>
+          <t>……ふふ、やっぱり、あなたはそう言ってくれるのですね。</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>お前の全てを、背負わせてくれ</t>
+          <t>……ふふ、やっぱり、あなたはそう言ってくれるのですね。</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>react3_nod</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>c3_nod</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
+          <t>name_revelation</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>react3_tell</t>
+          <t>react3_carry</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="F93" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>lily_r7</t>
+          <t>narr_11</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>……ふふ、やっぱり、あなたはそう言ってくれるのですね。</t>
+          <t>（リリィは涙を流し、微笑む。）</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>……ふふ、やっぱり、あなたはそう言ってくれるのですね。</t>
+          <t>（リリィは涙を流し、微笑む。）</t>
         </is>
       </c>
     </row>
@@ -1959,29 +1959,29 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>react3_carry</t>
+          <t>react3_nod</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="F96" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>narr_11</t>
+          <t>lily_r9</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>（リリィは涙を流し、微笑む。）</t>
+          <t>……無口ですが、その瞳は真剣ですね。では、お伝えします。</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>（リリィは涙を流し、微笑む。）</t>
+          <t>……無口ですが、その瞳は真剣ですね。では、お伝えします。</t>
         </is>
       </c>
     </row>
@@ -1995,7 +1995,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>react3_nod</t>
+          <t>name_revelation</t>
         </is>
       </c>
     </row>
@@ -2007,31 +2007,46 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>lily_r9</t>
+          <t>lily_12</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>……無口ですが、その瞳は真剣ですね。では、お伝えします。</t>
+          <t>……私の名は、『リリアリス・ヴォイド・テンプテイション』。</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>……無口ですが、その瞳は真剣ですね。では、お伝えします。</t>
+          <t>……私の名は、『リリアリス・ヴォイド・テンプテイション』。</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>name_revelation</t>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>name_revelation</t>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>lily_14</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>これからは、事務的な受付嬢（マネージャー）としてではなく……</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>これからは、事務的な受付嬢（マネージャー）としてではなく……</t>
         </is>
       </c>
     </row>
@@ -2043,123 +2058,138 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>lily_12</t>
+          <t>lily_15</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>……私の名は、『リリアリス・ヴォイド・テンプテイション』。</t>
+          <t>あなたの行く末を地獄の果てまで共にする、『共犯者』として隣に置かせてちょうだい。</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>……私の名は、『リリアリス・ヴォイド・テンプテイション』。</t>
+          <t>あなたの行く末を地獄の果てまで共にする、『共犯者』として隣に置かせてちょうだい。</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="D103" t="inlineStr">
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>scene4_contract</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>scene4_contract</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sacred_Triumph_Special");             var data = SoundManager.current.GetData("BGM/Emotional_Sacred_Triumph_Special");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sacred_Triumph_Special");             }</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>narr_13</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>（彼女の真名が告げられた瞬間、あなたの視界に未知のルーンが浮かび上がり、リリィの魔力があなたの体内に流れ込んでくる。）</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>（彼女の真名が告げられた瞬間、あなたの視界に未知のルーンが浮かび上がり、リリィの魔力があなたの体内に流れ込んでくる。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="D107" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
     </row>
-    <row r="104">
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>lily_14</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>これからは、事務的な受付嬢（マネージャー）としてではなく……</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>これからは、事務的な受付嬢（マネージャー）としてではなく……</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>lily_15</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>あなたの行く末を地獄の果てまで共にする、『共犯者』として隣に置かせてちょうだい。</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>あなたの行く末を地獄の果てまで共にする、『共犯者』として隣に置かせてちょうだい。</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>scene4_contract</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>scene4_contract</t>
-        </is>
-      </c>
-    </row>
     <row r="108">
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sacred_Triumph_Special");             var data = SoundManager.current.GetData("BGM/Emotional_Sacred_Triumph_Special");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sacred_Triumph_Special");             }</t>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>narr_14</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>（それは契約であり、守護であり、深い愛情の証だった。）</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>（それは契約であり、守護であり、深い愛情の証だった。）</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="F109" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>narr_13</t>
+          <t>lily_16</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>（彼女の真名が告げられた瞬間、あなたの視界に未知のルーンが浮かび上がり、リリィの魔力があなたの体内に流れ込んでくる。）</t>
+          <t>……ふふ、これで逃げられなくなりましたね。</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>（彼女の真名が告げられた瞬間、あなたの視界に未知のルーンが浮かび上がり、リリィの魔力があなたの体内に流れ込んでくる。）</t>
+          <t>……ふふ、これで逃げられなくなりましたね。</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>shake</t>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>lily_17</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>アスタロト様の待つ頂上で、何が起きようとも……あなたの背中は私が守ります。</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>アスタロト様の待つ頂上で、何が起きようとも……あなたの背中は私が守ります。</t>
         </is>
       </c>
     </row>
@@ -2171,39 +2201,24 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>narr_14</t>
+          <t>narr_15</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>（それは契約であり、守護であり、深い愛情の証だった。）</t>
+          <t>（リリィはあなたの頬に手を添え、優しく口づけをする。）</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>（それは契約であり、守護であり、深い愛情の証だった。）</t>
+          <t>（リリィはあなたの頬に手を添え、優しく口づけをする。）</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>lily_16</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>……ふふ、これで逃げられなくなりましたね。</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>……ふふ、これで逃げられなくなりましたね。</t>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>shake</t>
         </is>
       </c>
     </row>
@@ -2215,163 +2230,148 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>lily_17</t>
+          <t>lily_18</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>アスタロト様の待つ頂上で、何が起きようとも……あなたの背中は私が守ります。</t>
+          <t>さあ、行きましょう。ランクS『屠竜者』。あなたの伝説に、私の名前を添えて。</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>アスタロト様の待つ頂上で、何が起きようとも……あなたの背中は私が守ります。</t>
+          <t>さあ、行きましょう。ランクS『屠竜者』。あなたの伝説に、私の名前を添えて。</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>narr_15</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>（リリィはあなたの頬に手を添え、優しく口づけをする。）</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>（リリィはあなたの頬に手を添え、優しく口づけをする。）</t>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>final_choice</t>
         </is>
       </c>
     </row>
     <row r="115">
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>final_thanks</t>
+        </is>
+      </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>shake</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>c_final_thanks</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>……ありがとう、リリアリス</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>……ありがとう、リリアリス</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>final_protect</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>lily_18</t>
+          <t>c_final_protect</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>さあ、行きましょう。ランクS『屠竜者』。あなたの伝説に、私の名前を添えて。</t>
+          <t>お前を、必ず守る</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>さあ、行きましょう。ランクS『屠竜者』。あなたの伝説に、私の名前を添えて。</t>
+          <t>お前を、必ず守る</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>final_choice</t>
+          <t>final_embrace</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>c_final_embrace</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>（抱きしめる）</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>（抱きしめる）</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="inlineStr">
+      <c r="A118" t="inlineStr">
         <is>
           <t>final_thanks</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>c_final_thanks</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>……ありがとう、リリアリス</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>……ありがとう、リリアリス</t>
-        </is>
-      </c>
     </row>
     <row r="119">
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>final_protect</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>c_final_protect</t>
+          <t>lily_r10</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>お前を、必ず守る</t>
+          <t>その名で呼ばれるのは、初めてです。……嬉しいわ。</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>お前を、必ず守る</t>
+          <t>その名で呼ばれるのは、初めてです。……嬉しいわ。</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>final_embrace</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>c_final_embrace</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>（抱きしめる）</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>（抱きしめる）</t>
+          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>final_thanks</t>
+          <t>final_protect</t>
         </is>
       </c>
     </row>
@@ -2383,17 +2383,17 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>lily_r10</t>
+          <t>lily_r11</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>その名で呼ばれるのは、初めてです。……嬉しいわ。</t>
+          <t>ふふ、守るのは私の役目ですよ。でも……ありがとう。</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>その名で呼ばれるのは、初めてです。……嬉しいわ。</t>
+          <t>ふふ、守るのは私の役目ですよ。でも……ありがとう。</t>
         </is>
       </c>
     </row>
@@ -2407,7 +2407,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>final_protect</t>
+          <t>final_embrace</t>
         </is>
       </c>
     </row>
@@ -2419,17 +2419,17 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>lily_r11</t>
+          <t>lily_r12</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>ふふ、守るのは私の役目ですよ。でも……ありがとう。</t>
+          <t>……あぁ、温かい。あなたの温もりが、私を満たしてくれる……。</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>ふふ、守るのは私の役目ですよ。でも……ありがとう。</t>
+          <t>……あぁ、温かい。あなたの温もりが、私を満たしてくれる……。</t>
         </is>
       </c>
     </row>
@@ -2443,118 +2443,82 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>final_embrace</t>
+          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>lily_r12</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>……あぁ、温かい。あなたの温もりが、私を満たしてくれる……。</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>……あぁ、温かい。あなたの温もりが、私を満たしてくれる……。</t>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>chitsii.arena.rel.lily,100</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>ending</t>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.lily_true_name,1</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>ending</t>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>sys_buff</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>【システム】『真名の絆』を獲得しました。魔力+10、精神耐性+20、魅了耐性+20 の加護を得た！</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>【システム】『真名の絆』を獲得しました。魔力+10、精神耐性+20、魅了耐性+20 の加護を得た！</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>chitsii.arena.rel.lily,100</t>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>sys_title</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>【システム】称号『リリアリスの伴侶』を獲得しました。</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>【システム】称号『リリアリスの伴侶』を獲得しました。</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="D132" t="inlineStr">
         <is>
-          <t>setFlag</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>chitsii.arena.player.lily_true_name,1</t>
+          <t>Elin_SukutsuArena.ArenaManager.GrantLilyRealNameBonus();</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>sys_buff</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>【システム】『真名の絆』を獲得しました。魔力+10、精神耐性+20、魅了耐性+20 の加護を得た！</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>【システム】『真名の絆』を獲得しました。魔力+10、精神耐性+20、魅了耐性+20 の加護を得た！</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>sys_title</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>【システム】称号『リリアリスの伴侶』を獲得しました。</t>
-        </is>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>【システム】称号『リリアリスの伴侶』を獲得しました。</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.GrantLilyRealNameBonus();</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="D136" t="inlineStr">
+      <c r="D133" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_lily_real_name.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_lily_real_name.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K136"/>
+  <dimension ref="A1:K134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -995,12 +995,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>私はサキュバス。このアリーナに囚われた魂が、絶望に染まり、最後の一滴まで絞り出されるのを見届ける『観察者』でした。</t>
+          <t>私は、このアリーナに囚われた魂が、絶望に染まり、最後の一滴まで絞り出されるのを見届けるのが役割でした。</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>私はサキュバス。このアリーナに囚われた魂が、絶望に染まり、最後の一滴まで絞り出されるのを見届ける『観察者』でした。</t>
+          <t>私は、このアリーナに囚われた魂が、絶望に染まり、最後の一滴まで絞り出されるのを見届けるのが役割でした。</t>
         </is>
       </c>
     </row>
@@ -1095,12 +1095,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>魅了……？</t>
+          <t>サキュバスなのに……？</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>魅了……？</t>
+          <t>サキュバスなのに……？</t>
         </is>
       </c>
     </row>
@@ -1364,12 +1364,12 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>私には『故郷』がないのです。他のサキュバスのように、どこかの確定次元から落ちてきたわけではありません。</t>
+          <t>私には『故郷』がないのです。他のサキュバスのように、どこかの確定次元で生まれ、そこから落ちてきたわけではありません。</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>私には『故郷』がないのです。他のサキュバスのように、どこかの確定次元から落ちてきたわけではありません。</t>
+          <t>私には『故郷』がないのです。他のサキュバスのように、どこかの確定次元で生まれ、そこから落ちてきたわけではありません。</t>
         </is>
       </c>
     </row>
@@ -1386,12 +1386,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>私は……この次元の狭間そのものから生まれました。崩壊した世界の残滓、漂流する感情の欠片、そして『誰かに愛されたい』という無数の魂の願い……。それらが凝縮して、私という存在が生まれた。</t>
+          <t>私は……この次元の狭間そのもので生まれました。崩壊した世界の残滓、漂流する感情の欠片、そして『誰かに愛されたい』という無数の魂の願い……。それらが凝縮して、私という存在が生まれた。</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>私は……この次元の狭間そのものから生まれました。崩壊した世界の残滓、漂流する感情の欠片、そして『誰かに愛されたい』という無数の魂の願い……。それらが凝縮して、私という存在が生まれた。</t>
+          <t>私は……この次元の狭間そのもので生まれました。崩壊した世界の残滓、漂流する感情の欠片、そして『誰かに愛されたい』という無数の魂の願い……。それらが凝縮して、私という存在が生まれた。</t>
         </is>
       </c>
     </row>
@@ -1408,12 +1408,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>だから私には、帰る場所がない。どこの世界にも属さない。誰にも必要とされていない。……500年もの間、ずっとそう思って生きてきました。</t>
+          <t>だから私には、家族も、帰る場所もない。どこの世界にも属さない。本当の意味で、誰とも繋がっていない、と。……500年もの間、ずっとそう思って生きてきました。</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>だから私には、帰る場所がない。どこの世界にも属さない。誰にも必要とされていない。……500年もの間、ずっとそう思って生きてきました。</t>
+          <t>だから私には、家族も、帰る場所もない。どこの世界にも属さない。本当の意味で、誰とも繋がっていない、と。……500年もの間、ずっとそう思って生きてきました。</t>
         </is>
       </c>
     </row>
@@ -1498,12 +1498,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>……ふふ、辛いと思う余裕すらありませんでした。それが当たり前でしたから。</t>
+          <t>……ふふ、それが当たり前でしたから。だからこそ、私は、この闘技場での義務に忠実であることができた。</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>……ふふ、辛いと思う余裕すらありませんでした。それが当たり前でしたから。</t>
+          <t>……ふふ、それが当たり前でしたから。だからこそ、私は、この闘技場での義務に忠実であることができた。</t>
         </is>
       </c>
     </row>
@@ -1592,12 +1592,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>……最初、それが羨ましかった。妬ましかった。『どうせこの人も、いつかはここを去っていく。私を置いて』と。</t>
+          <t>……最初、それが羨ましく苛立たしかった。『どうせこの人も、いつかは帰るべき場所へ去っていく。私を置いて』と。</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>……最初、それが羨ましかった。妬ましかった。『どうせこの人も、いつかはここを去っていく。私を置いて』と。</t>
+          <t>……最初、それが羨ましく苛立たしかった。『どうせこの人も、いつかは帰るべき場所へ去っていく。私を置いて』と。</t>
         </is>
       </c>
     </row>
@@ -1614,12 +1614,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>でも、あなたは一度去っても、また帰ってきてくれる。バルガスさんのために戦い、私のために怒り……。『義務』ではなく『選択』として、ここにいてくれた。</t>
+          <t>でも、あなたは一度去っても、また帰ってきてくれる。バルガスさんのために戦い、私のために怒り……。『義務』ではなく『選択』として、ここにいてくれる。</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>でも、あなたは一度去っても、また帰ってきてくれる。バルガスさんのために戦い、私のために怒り……。『義務』ではなく『選択』として、ここにいてくれた。</t>
+          <t>でも、あなたは一度去っても、また帰ってきてくれる。バルガスさんのために戦い、私のために怒り……。『義務』ではなく『選択』として、ここにいてくれる。</t>
         </is>
       </c>
     </row>
@@ -1636,12 +1636,12 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>それが、どれほど私を救ったか……あなたには分からないでしょうね。帰る場所がある人に、『それでも傍にいる』と選ばれること。それは、居場所のない私にとって、初めて与えられた『居場所』でした。</t>
+          <t>それが、どれほど私を救ったか……あなたには分からないでしょう。帰る場所がある人に、『それでも傍にいる』と選ばれること。それは、居場所のない私にとって、初めて与えられた『居場所』でした。</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>それが、どれほど私を救ったか……あなたには分からないでしょうね。帰る場所がある人に、『それでも傍にいる』と選ばれること。それは、居場所のない私にとって、初めて与えられた『居場所』でした。</t>
+          <t>それが、どれほど私を救ったか……あなたには分からないでしょう。帰る場所がある人に、『それでも傍にいる』と選ばれること。それは、居場所のない私にとって、初めて与えられた『居場所』でした。</t>
         </is>
       </c>
     </row>
@@ -1747,22 +1747,22 @@
     <row r="84">
       <c r="F84" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>narr_10</t>
+          <t>lily_9</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>（サキュバスにとって、自らの「真名」を明かすことは、魂の手綱を相手に委ねることと同義である。）</t>
+          <t>……これからお話しするのは、この世界のどこにも記録されていない、私の本当の名前。</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>（サキュバスにとって、自らの「真名」を明かすことは、魂の手綱を相手に委ねることと同義である。）</t>
+          <t>……これからお話しするのは、この世界のどこにも記録されていない、私の本当の名前。</t>
         </is>
       </c>
     </row>
@@ -1774,17 +1774,17 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>lily_9</t>
+          <t>lily_10</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>……これからお話しするのは、この世界のどこにも記録されていない、私の本当の名前。</t>
+          <t>アスタロト様すら知らない……私の魂の、一番奥にある『鍵』。</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>……これからお話しするのは、この世界のどこにも記録されていない、私の本当の名前。</t>
+          <t>アスタロト様すら知らない……私の魂の、一番奥にある『鍵』。</t>
         </is>
       </c>
     </row>
@@ -1796,53 +1796,58 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>lily_10</t>
+          <t>lily_11</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>アスタロト様すら知らない……私の魂の、一番奥にある『鍵』。</t>
+          <t>これを知る者は、私の全てを支配し、同時に私の運命を一生背負うことになります。……あなたに知っておいてもらいたいのです。</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>アスタロト様すら知らない……私の魂の、一番奥にある『鍵』。</t>
+          <t>これを知る者は、私の全てを支配し、同時に私の運命を一生背負うことになります。……あなたに知っておいてもらいたいのです。</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>lily_11</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>これを知る者は、私の全てを支配し、同時に私の運命を一生背負うことになります。……あなたに知っておいてもらいたいのです。</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>これを知る者は、私の全てを支配し、同時に私の運命を一生背負うことになります。……あなたに知っておいてもらいたいのです。</t>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>choice3</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>choice3</t>
+          <t>react3_tell</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>c3_tell</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>……聞かせてくれ</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>……聞かせてくれ</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>react3_tell</t>
+          <t>react3_carry</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -1852,215 +1857,210 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>c3_tell</t>
+          <t>c3_carry</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>……聞かせてくれ</t>
+          <t>お前の全てを、背負わせてくれ</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>……聞かせてくれ</t>
+          <t>お前の全てを、背負わせてくれ</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
+          <t>react3_nod</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>c3_nod</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>（無言で頷く）</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>（無言で頷く）</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>react3_tell</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>lily_r7</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>……ふふ、やっぱり、あなたはそう言ってくれるのですね。</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>……ふふ、やっぱり、あなたはそう言ってくれるのですね。</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>name_revelation</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
           <t>react3_carry</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>c3_carry</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>お前の全てを、背負わせてくれ</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>お前の全てを、背負わせてくれ</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="B91" t="inlineStr">
+    </row>
+    <row r="95">
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>narr_11</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>（リリィは涙を流し、微笑む。）</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>（リリィは涙を流し、微笑む。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>name_revelation</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
         <is>
           <t>react3_nod</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>c3_nod</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>react3_tell</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>lily_r7</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>……ふふ、やっぱり、あなたはそう言ってくれるのですね。</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>……ふふ、やっぱり、あなたはそう言ってくれるのですね。</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="B94" t="inlineStr">
+    </row>
+    <row r="98">
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>lily_r9</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>……無口ですが、その瞳は真剣ですね。では、お伝えします。</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>……無口ですが、その瞳は真剣ですね。では、お伝えします。</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" t="inlineStr">
         <is>
           <t>name_revelation</t>
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>react3_carry</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>narr_11</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>（リリィは涙を流し、微笑む。）</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>（リリィは涙を流し、微笑む。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="B97" t="inlineStr">
+    <row r="100">
+      <c r="A100" t="inlineStr">
         <is>
           <t>name_revelation</t>
         </is>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>react3_nod</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>lily_r9</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>……無口ですが、その瞳は真剣ですね。では、お伝えします。</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>……無口ですが、その瞳は真剣ですね。では、お伝えします。</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>name_revelation</t>
-        </is>
-      </c>
-    </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>name_revelation</t>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>lily_12</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>……私の名は、『リリアリス・ヴォイド・テンプテイション』。</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>……私の名は、『リリアリス・ヴォイド・テンプテイション』。</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>lily_12</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>……私の名は、『リリアリス・ヴォイド・テンプテイション』。</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>……私の名は、『リリアリス・ヴォイド・テンプテイション』。</t>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>shake</t>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>lily_14</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>これからは、単なるあなたのマネージャーとしてではなく……</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>これからは、単なるあなたのマネージャーとしてではなく……</t>
         </is>
       </c>
     </row>
@@ -2072,65 +2072,60 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>lily_14</t>
+          <t>lily_15</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>これからは、事務的な受付嬢（マネージャー）としてではなく……</t>
+          <t>あなたの行く末を地獄の果てまで共にする、『共犯者』として隣に置かせてちょうだい。</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>これからは、事務的な受付嬢（マネージャー）としてではなく……</t>
+          <t>あなたの行く末を地獄の果てまで共にする、『共犯者』として隣に置かせてちょうだい。</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>lily_15</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>あなたの行く末を地獄の果てまで共にする、『共犯者』として隣に置かせてちょうだい。</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>あなたの行く末を地獄の果てまで共にする、『共犯者』として隣に置かせてちょうだい。</t>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>scene4_contract</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="inlineStr">
+      <c r="A106" t="inlineStr">
         <is>
           <t>scene4_contract</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>scene4_contract</t>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>narr_13</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>（彼女の真名が告げられた瞬間、あなたの視界に未知のルーンが浮かび上がり、リリィの魔力があなたの体内に流れ込んでくる。）</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>（彼女の真名が告げられた瞬間、あなたの視界に未知のルーンが浮かび上がり、リリィの魔力があなたの体内に流れ込んでくる。）</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="D108" t="inlineStr">
         <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sacred_Triumph_Special");             var data = SoundManager.current.GetData("BGM/Emotional_Sacred_Triumph_Special");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sacred_Triumph_Special");             }</t>
+          <t>shake</t>
         </is>
       </c>
     </row>
@@ -2142,419 +2137,390 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>narr_13</t>
+          <t>narr_14</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>（彼女の真名が告げられた瞬間、あなたの視界に未知のルーンが浮かび上がり、リリィの魔力があなたの体内に流れ込んでくる。）</t>
+          <t>（それは契約であり、守護であり、深い愛情の証だった。）</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>（彼女の真名が告げられた瞬間、あなたの視界に未知のルーンが浮かび上がり、リリィの魔力があなたの体内に流れ込んでくる。）</t>
+          <t>（それは契約であり、守護であり、深い愛情の証だった。）</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>shake</t>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>lily_16</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>……ふふ、これで逃げられなくなりましたね。</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>……ふふ、これで逃げられなくなりましたね。</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="F111" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>narr_14</t>
+          <t>lily_17</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>（それは契約であり、守護であり、深い愛情の証だった。）</t>
+          <t>アスタロト様の待つ頂上で、何が起きようとも……あなたの背中は私が守ります。</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>（それは契約であり、守護であり、深い愛情の証だった。）</t>
+          <t>アスタロト様の待つ頂上で、何が起きようとも……あなたの背中は私が守ります。</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="F112" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>lily_16</t>
+          <t>narr_15</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>……ふふ、これで逃げられなくなりましたね。</t>
+          <t>（リリィはあなたの頬に手を添え、優しく口づけをする。）</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>……ふふ、これで逃げられなくなりましたね。</t>
+          <t>（リリィはあなたの頬に手を添え、優しく口づけをする。）</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>lily_17</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>アスタロト様の待つ頂上で、何が起きようとも……あなたの背中は私が守ります。</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>アスタロト様の待つ頂上で、何が起きようとも……あなたの背中は私が守ります。</t>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="F114" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>narr_15</t>
+          <t>lily_18</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>（リリィはあなたの頬に手を添え、優しく口づけをする。）</t>
+          <t>さあ、行きましょう。あなたの伝説に、私の名前を添えて。</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>（リリィはあなたの頬に手を添え、優しく口づけをする。）</t>
+          <t>さあ、行きましょう。あなたの伝説に、私の名前を添えて。</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>shake</t>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>final_choice</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>final_thanks</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>lily_18</t>
+          <t>c_final_thanks</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>さあ、行きましょう。ランクS『屠竜者』。あなたの伝説に、私の名前を添えて。</t>
+          <t>……ありがとう、リリアリス</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>さあ、行きましょう。ランクS『屠竜者』。あなたの伝説に、私の名前を添えて。</t>
+          <t>……ありがとう、リリアリス</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>final_choice</t>
+          <t>final_protect</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>c_final_protect</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>お前を、必ず守る</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>お前を、必ず守る</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
+          <t>final_embrace</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>c_final_embrace</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>（抱きしめる）</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>（抱きしめる）</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
           <t>final_thanks</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>c_final_thanks</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>……ありがとう、リリアリス</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>……ありがとう、リリアリス</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="B119" t="inlineStr">
+    </row>
+    <row r="120">
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>lily_r10</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>その名で呼ばれるのは、初めてです。……嬉しいわ。</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>その名で呼ばれるのは、初めてです。……嬉しいわ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>ending</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
         <is>
           <t>final_protect</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>c_final_protect</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>お前を、必ず守る</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>お前を、必ず守る</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="B120" t="inlineStr">
+    </row>
+    <row r="123">
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>lily_r11</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>ふふ、守るのは私の役目ですよ。でも……ありがとう。</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>ふふ、守るのは私の役目ですよ。でも……ありがとう。</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>ending</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
         <is>
           <t>final_embrace</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>c_final_embrace</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>（抱きしめる）</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>（抱きしめる）</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>final_thanks</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>lily_r10</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>その名で呼ばれるのは、初めてです。……嬉しいわ。</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>その名で呼ばれるのは、初めてです。……嬉しいわ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="B123" t="inlineStr">
+    </row>
+    <row r="126">
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>lily_r12</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>……あぁ、温かい。あなたの温もりが、私を満たしてくれる……。</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>……あぁ、温かい。あなたの温もりが、私を満たしてくれる……。</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="B127" t="inlineStr">
         <is>
           <t>ending</t>
         </is>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>final_protect</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>lily_r11</t>
-        </is>
-      </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>ふふ、守るのは私の役目ですよ。でも……ありがとう。</t>
-        </is>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>ふふ、守るのは私の役目ですよ。でも……ありがとう。</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="B126" t="inlineStr">
+    <row r="128">
+      <c r="A128" t="inlineStr">
         <is>
           <t>ending</t>
         </is>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>final_embrace</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>lily_r12</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>……あぁ、温かい。あなたの温もりが、私を満たしてくれる……。</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>……あぁ、温かい。あなたの温もりが、私を満たしてくれる……。</t>
-        </is>
-      </c>
-    </row>
     <row r="129">
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>ending</t>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>chitsii.arena.rel.lily,100</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>ending</t>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.lily_true_name,1</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>chitsii.arena.rel.lily,100</t>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>sys_buff</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>【システム】『真名の絆』を獲得しました。魔力+10、精神耐性+20、魅了耐性+20 の加護を得た！</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>【システム】『真名の絆』を獲得しました。魔力+10、精神耐性+20、魅了耐性+20 の加護を得た！</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.lily_true_name,1</t>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>sys_title</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>【システム】称号『リリアリスの伴侶』を獲得しました。</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>【システム】称号『リリアリスの伴侶』を獲得しました。</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>sys_buff</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>【システム】『真名の絆』を獲得しました。魔力+10、精神耐性+20、魅了耐性+20 の加護を得た！</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>【システム】『真名の絆』を獲得しました。魔力+10、精神耐性+20、魅了耐性+20 の加護を得た！</t>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.GrantLilyRealNameBonus();</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>sys_title</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>【システム】称号『リリアリスの伴侶』を獲得しました。</t>
-        </is>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>【システム】称号『リリアリスの伴侶』を獲得しました。</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.GrantLilyRealNameBonus();</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="D136" t="inlineStr">
+      <c r="D134" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_lily_real_name.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_lily_real_name.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K134"/>
+  <dimension ref="A1:K133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2457,70 +2457,58 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>chitsii.arena.rel.lily,100</t>
+          <t>chitsii.arena.player.lily_true_name,1</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.lily_true_name,1</t>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>sys_buff</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>【システム】『真名の絆』を獲得しました。魔力+10、精神耐性+20、魅了耐性+20 の加護を得た！</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>【システム】『真名の絆』を獲得しました。魔力+10、精神耐性+20、魅了耐性+20 の加護を得た！</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="H131" t="inlineStr">
         <is>
-          <t>sys_buff</t>
+          <t>sys_title</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>【システム】『真名の絆』を獲得しました。魔力+10、精神耐性+20、魅了耐性+20 の加護を得た！</t>
+          <t>【システム】称号『リリアリスの伴侶』を獲得しました。</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>【システム】『真名の絆』を獲得しました。魔力+10、精神耐性+20、魅了耐性+20 の加護を得た！</t>
+          <t>【システム】称号『リリアリスの伴侶』を獲得しました。</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>sys_title</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>【システム】称号『リリアリスの伴侶』を獲得しました。</t>
-        </is>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>【システム】称号『リリアリスの伴侶』を獲得しました。</t>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.GrantLilyRealNameBonus();</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="D133" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.GrantLilyRealNameBonus();</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="D134" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_lily_real_name.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_lily_real_name.xlsx
@@ -2026,12 +2026,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>……私の名は、『リリアリス・ヴォイド・テンプテイション』。</t>
+          <t>……私の名は、『リリシエル・サングイス・ルナエ（Lilithiel Sanguis Lunae）』。</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>……私の名は、『リリアリス・ヴォイド・テンプテイション』。</t>
+          <t>……私の名は、『リリシエル・サングイス・ルナエ（Lilithiel Sanguis Lunae）』。</t>
         </is>
       </c>
     </row>
@@ -2271,12 +2271,12 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>……ありがとう、リリアリス</t>
+          <t>……ありがとう、リリシエル</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>……ありがとう、リリアリス</t>
+          <t>……ありがとう、リリシエル</t>
         </is>
       </c>
     </row>
@@ -2486,12 +2486,12 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>【システム】称号『リリアリスの伴侶』を獲得しました。</t>
+          <t>【システム】称号『リリシエルの伴侶』を獲得しました。</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>【システム】称号『リリアリスの伴侶』を獲得しました。</t>
+          <t>【システム】称号『リリシエルの伴侶』を獲得しました。</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_lily_real_name.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_lily_real_name.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K133"/>
+  <dimension ref="A1:K134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2510,6 +2510,23 @@
     <row r="133">
       <c r="D133" t="inlineStr">
         <is>
+          <t>modInvoke</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>complete_quest(16_lily_real_name)</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="D134" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_lily_real_name.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_lily_real_name.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K134"/>
+  <dimension ref="A1:L134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,40 +439,45 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>if2</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>action</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>actor</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>text_JP</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>text_EN</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>text</t>
         </is>
@@ -486,78 +491,78 @@
       </c>
     </row>
     <row r="7">
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Private_Room");             var data = SoundManager.current.GetData("BGM/Lily_Private_Room");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Private_Room");             }</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>narr_1</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>（激闘が終わり、静まり返ったアリーナの私室。）</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>（激闘が終わり、静まり返ったアリーナの私室。）</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>narr_2</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>（いつも以上に濃い紫煙が揺らめき、その奥でリリィはバルガスから贈られた古い酒瓶を愛おしそうに眺めていた。）</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>（いつも以上に濃い紫煙が揺らめき、その奥でリリィはバルガスから贈られた古い酒瓶を愛おしそうに眺めていた。）</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>narr_3</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>（あなたが部屋に入ると、彼女はゆっくりと立ち上がり、普段の事務的な仮面を完全に脱ぎ捨てた「一人の女」の顔で微笑んだ。）</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>（あなたが部屋に入ると、彼女はゆっくりと立ち上がり、普段の事務的な仮面を完全に脱ぎ捨てた「一人の女」の顔で微笑んだ。）</t>
         </is>
@@ -578,146 +583,146 @@
       </c>
     </row>
     <row r="13">
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>lily_1</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>……おかえりなさい。バルガスさんは、今頃泥のように眠っています。</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>……おかえりなさい。バルガスさんは、今頃泥のように眠っています。</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>lily_2</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>あんなに安らかな寝顔を見たのは、私も初めてかもしれません。……ふふ、本当に、あなたという人は。</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>あんなに安らかな寝顔を見たのは、私も初めてかもしれません。……ふふ、本当に、あなたという人は。</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>narr_4</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>（彼女は酒瓶を置き、あなたに近づく。）</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>（彼女は酒瓶を置き、あなたに近づく。）</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>lily_3</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>バルガスさんを助けてくれたこと、お礼を言わせてください。……でも、それは単なる『感謝』ではありません。</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>バルガスさんを助けてくれたこと、お礼を言わせてください。……でも、それは単なる『感謝』ではありません。</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>lily_4</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>あなたが今日、あの残酷な喝采を黙らせた時……私の中で、何かが音を立てて崩れたのです。</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>あなたが今日、あの残酷な喝采を黙らせた時……私の中で、何かが音を立てて崩れたのです。</t>
         </is>
@@ -736,22 +741,22 @@
           <t>react1_what</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>c1_what</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>……何が崩れたんだ？</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>……何が崩れたんだ？</t>
         </is>
@@ -763,22 +768,22 @@
           <t>react1_want</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>c1_want</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>お前は、俺に何を求めている？</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>お前は、俺に何を求めている？</t>
         </is>
@@ -790,22 +795,22 @@
           <t>react1_silent</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>c1_silent</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>（無言で聞く）</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>（無言で聞く）</t>
         </is>
@@ -819,22 +824,22 @@
       </c>
     </row>
     <row r="26">
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>lily_r1</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>私の……『観察者』としての仮面です。もう、あなたを冷静に見ることができません。</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>私の……『観察者』としての仮面です。もう、あなたを冷静に見ることができません。</t>
         </is>
@@ -855,22 +860,22 @@
       </c>
     </row>
     <row r="29">
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>lily_r2</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>……全てです。あなたの全てを、私に委ねてほしい。</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>……全てです。あなたの全てを、私に委ねてほしい。</t>
         </is>
@@ -891,22 +896,22 @@
       </c>
     </row>
     <row r="32">
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>lily_r3</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>……無口ですが、その瞳は饒舌ですね。続けさせていただきます。</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>……無口ですが、その瞳は饒舌ですね。続けさせていただきます。</t>
         </is>
@@ -927,144 +932,144 @@
       </c>
     </row>
     <row r="35">
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Seductive_Danger");             var data = SoundManager.current.GetData("BGM/Lily_Seductive_Danger");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Seductive_Danger");             }</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>narr_5</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>（リリィはあなたの至近距離まで歩み寄り、その冷たいはずの指先であなたの胸元に触れた。）</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>（リリィはあなたの至近距離まで歩み寄り、その冷たいはずの指先であなたの胸元に触れた。）</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>narr_6</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>（そこには「黄金の戦鬼」としての力強い鼓動が刻まれている。）</t>
-        </is>
-      </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>（そこには「黄金の戦鬼」としての力強い鼓動が刻まれている。）</t>
+          <t>（そこには「戦鬼」としての力強い鼓動が刻まれている。）</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>（そこには「戦鬼」としての力強い鼓動が刻まれている。）</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>lily_5</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>私は、このアリーナに囚われた魂が、絶望に染まり、最後の一滴まで絞り出されるのを見届けるのが役割でした。</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>私は、このアリーナに囚われた魂が、絶望に染まり、最後の一滴まで絞り出されるのを見届けるのが役割でした。</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>lily_6</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>……あなたも、その一人になるはずだった。</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>……あなたも、その一人になるはずだった。</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>lily_7</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>けれど、あなたは強くなるほどに優しく、孤独になるほどに誰かの手を握ろうとした。</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>けれど、あなたは強くなるほどに優しく、孤独になるほどに誰かの手を握ろうとした。</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>lily_8</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>……その姿を特等席で眺めているうちに、私の方が、あなたの魂に『魅了』されてしまったようです。</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>……その姿を特等席で眺めているうちに、私の方が、あなたの魂に『魅了』されてしまったようです。</t>
         </is>
@@ -1083,22 +1088,22 @@
           <t>react2_enchanted</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>c2_enchanted</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>サキュバスなのに……？</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>サキュバスなのに……？</t>
         </is>
@@ -1110,22 +1115,22 @@
           <t>react2_me_too</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>c2_me_too</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>俺も、お前に魅了されている</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>俺も、お前に魅了されている</t>
         </is>
@@ -1137,22 +1142,22 @@
           <t>react2_touch</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>c2_touch</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>（無言で頬に触れる）</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>（無言で頬に触れる）</t>
         </is>
@@ -1166,22 +1171,22 @@
       </c>
     </row>
     <row r="47">
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>lily_r4</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>ええ。サキュバスが、人間に魅了される……滑稽でしょう？</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>ええ。サキュバスが、人間に魅了される……滑稽でしょう？</t>
         </is>
@@ -1202,44 +1207,44 @@
       </c>
     </row>
     <row r="50">
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>lily_r5</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>……！ あなた、そんな……。</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>……！ あなた、そんな……。</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>narr_7</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>（リリィは頬を染め、目を逸らす。）</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>（リリィは頬を染め、目を逸らす。）</t>
         </is>
@@ -1260,22 +1265,22 @@
       </c>
     </row>
     <row r="54">
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>lily_r6</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>……あぁ、温かい。あなたの手は、いつも温かいですね。</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>……あぁ、温かい。あなたの手は、いつも温かいですね。</t>
         </is>
@@ -1296,122 +1301,122 @@
       </c>
     </row>
     <row r="57">
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Confession");             var data = SoundManager.current.GetData("BGM/Lily_Confession");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Confession");             }</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>narr_nh1</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>（リリィは窓辺に歩み寄り、次元の狭間に浮かぶ歪んだ景色を眺める。）</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>（リリィは窓辺に歩み寄り、次元の狭間に浮かぶ歪んだ景色を眺める。）</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>lily_nh1</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>……ねえ、あなたは知っていますか？ 私がどこから来たのか。</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>……ねえ、あなたは知っていますか？ 私がどこから来たのか。</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>lily_nh2</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>私には『故郷』がないのです。他のサキュバスのように、どこかの確定次元で生まれ、そこから落ちてきたわけではありません。</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>私には『故郷』がないのです。他のサキュバスのように、どこかの確定次元で生まれ、そこから落ちてきたわけではありません。</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>lily_nh3</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>私は……この次元の狭間そのもので生まれました。崩壊した世界の残滓、漂流する感情の欠片、そして『誰かに愛されたい』という無数の魂の願い……。それらが凝縮して、私という存在が生まれた。</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>私は……この次元の狭間そのもので生まれました。崩壊した世界の残滓、漂流する感情の欠片、そして『誰かに愛されたい』という無数の魂の願い……。それらが凝縮して、私という存在が生まれた。</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>lily_nh4</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>だから私には、家族も、帰る場所もない。どこの世界にも属さない。本当の意味で、誰とも繋がっていない、と。……500年もの間、ずっとそう思って生きてきました。</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>だから私には、家族も、帰る場所もない。どこの世界にも属さない。本当の意味で、誰とも繋がっていない、と。……500年もの間、ずっとそう思って生きてきました。</t>
         </is>
@@ -1430,22 +1435,22 @@
           <t>react2_5_hard</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>c2_5_hard</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>……それは、辛かっただろう</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr">
+      <c r="K64" t="inlineStr">
         <is>
           <t>……それは、辛かっただろう</t>
         </is>
@@ -1457,22 +1462,22 @@
           <t>react2_5_hand</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>c2_5_hand</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>（無言で手を握る）</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
           <t>（無言で手を握る）</t>
         </is>
@@ -1486,22 +1491,22 @@
       </c>
     </row>
     <row r="67">
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
         <is>
           <t>lily_nh_r1</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
           <t>……ふふ、それが当たり前でしたから。だからこそ、私は、この闘技場での義務に忠実であることができた。</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>……ふふ、それが当たり前でしたから。だからこそ、私は、この闘技場での義務に忠実であることができた。</t>
         </is>
@@ -1522,22 +1527,22 @@
       </c>
     </row>
     <row r="70">
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
         <is>
           <t>lily_nh_r3</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
+      <c r="J70" t="inlineStr">
         <is>
           <t>……温かい。あなたの手は、いつも温かいですね……。</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr">
+      <c r="K70" t="inlineStr">
         <is>
           <t>……温かい。あなたの手は、いつも温かいですね……。</t>
         </is>
@@ -1558,117 +1563,117 @@
       </c>
     </row>
     <row r="73">
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
         <is>
           <t>lily_nh5</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
+      <c r="J73" t="inlineStr">
         <is>
           <t>あなたは違う。あなたには、イルヴァという帰る場所がある。神々との繋がりがあって、いつでもここを去ることができる。</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr">
+      <c r="K73" t="inlineStr">
         <is>
           <t>あなたは違う。あなたには、イルヴァという帰る場所がある。神々との繋がりがあって、いつでもここを去ることができる。</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
         <is>
           <t>lily_nh6</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
+      <c r="J74" t="inlineStr">
         <is>
           <t>……最初、それが羨ましく苛立たしかった。『どうせこの人も、いつかは帰るべき場所へ去っていく。私を置いて』と。</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr">
+      <c r="K74" t="inlineStr">
         <is>
           <t>……最初、それが羨ましく苛立たしかった。『どうせこの人も、いつかは帰るべき場所へ去っていく。私を置いて』と。</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
         <is>
           <t>lily_nh7</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
           <t>でも、あなたは一度去っても、また帰ってきてくれる。バルガスさんのために戦い、私のために怒り……。『義務』ではなく『選択』として、ここにいてくれる。</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr">
+      <c r="K75" t="inlineStr">
         <is>
           <t>でも、あなたは一度去っても、また帰ってきてくれる。バルガスさんのために戦い、私のために怒り……。『義務』ではなく『選択』として、ここにいてくれる。</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
         <is>
           <t>lily_nh8</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr">
+      <c r="J76" t="inlineStr">
         <is>
           <t>それが、どれほど私を救ったか……あなたには分からないでしょう。帰る場所がある人に、『それでも傍にいる』と選ばれること。それは、居場所のない私にとって、初めて与えられた『居場所』でした。</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr">
+      <c r="K76" t="inlineStr">
         <is>
           <t>それが、どれほど私を救ったか……あなたには分からないでしょう。帰る場所がある人に、『それでも傍にいる』と選ばれること。それは、居場所のない私にとって、初めて与えられた『居場所』でした。</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>narr_nh3</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr">
+      <c r="J78" t="inlineStr">
         <is>
           <t>（リリィは涙を流しながら、微笑む。）</t>
         </is>
       </c>
-      <c r="J78" t="inlineStr">
+      <c r="K78" t="inlineStr">
         <is>
           <t>（リリィは涙を流しながら、微笑む。）</t>
         </is>
@@ -1689,122 +1694,122 @@
       </c>
     </row>
     <row r="81">
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Confession");             var data = SoundManager.current.GetData("BGM/Lily_Confession");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Confession");             }</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>narr_8</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr">
+      <c r="J82" t="inlineStr">
         <is>
           <t>（部屋の照明が一段と暗くなり、リリィの背中にある翼が、意思を持つかのように微かに震える。）</t>
         </is>
       </c>
-      <c r="J82" t="inlineStr">
+      <c r="K82" t="inlineStr">
         <is>
           <t>（部屋の照明が一段と暗くなり、リリィの背中にある翼が、意思を持つかのように微かに震える。）</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>narr_9</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr">
+      <c r="J83" t="inlineStr">
         <is>
           <t>（彼女は意を決したように、あなたの耳元に唇を寄せた。）</t>
         </is>
       </c>
-      <c r="J83" t="inlineStr">
+      <c r="K83" t="inlineStr">
         <is>
           <t>（彼女は意を決したように、あなたの耳元に唇を寄せた。）</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
         <is>
           <t>lily_9</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr">
+      <c r="J84" t="inlineStr">
         <is>
           <t>……これからお話しするのは、この世界のどこにも記録されていない、私の本当の名前。</t>
         </is>
       </c>
-      <c r="J84" t="inlineStr">
+      <c r="K84" t="inlineStr">
         <is>
           <t>……これからお話しするのは、この世界のどこにも記録されていない、私の本当の名前。</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
         <is>
           <t>lily_10</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr">
+      <c r="J85" t="inlineStr">
         <is>
           <t>アスタロト様すら知らない……私の魂の、一番奥にある『鍵』。</t>
         </is>
       </c>
-      <c r="J85" t="inlineStr">
+      <c r="K85" t="inlineStr">
         <is>
           <t>アスタロト様すら知らない……私の魂の、一番奥にある『鍵』。</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
         <is>
           <t>lily_11</t>
         </is>
       </c>
-      <c r="I86" t="inlineStr">
+      <c r="J86" t="inlineStr">
         <is>
           <t>これを知る者は、私の全てを支配し、同時に私の運命を一生背負うことになります。……あなたに知っておいてもらいたいのです。</t>
         </is>
       </c>
-      <c r="J86" t="inlineStr">
+      <c r="K86" t="inlineStr">
         <is>
           <t>これを知る者は、私の全てを支配し、同時に私の運命を一生背負うことになります。……あなたに知っておいてもらいたいのです。</t>
         </is>
@@ -1823,22 +1828,22 @@
           <t>react3_tell</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>c3_tell</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr">
+      <c r="J88" t="inlineStr">
         <is>
           <t>……聞かせてくれ</t>
         </is>
       </c>
-      <c r="J88" t="inlineStr">
+      <c r="K88" t="inlineStr">
         <is>
           <t>……聞かせてくれ</t>
         </is>
@@ -1850,22 +1855,22 @@
           <t>react3_carry</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>c3_carry</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr">
+      <c r="J89" t="inlineStr">
         <is>
           <t>お前の全てを、背負わせてくれ</t>
         </is>
       </c>
-      <c r="J89" t="inlineStr">
+      <c r="K89" t="inlineStr">
         <is>
           <t>お前の全てを、背負わせてくれ</t>
         </is>
@@ -1877,22 +1882,22 @@
           <t>react3_nod</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>c3_nod</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr">
+      <c r="J90" t="inlineStr">
         <is>
           <t>（無言で頷く）</t>
         </is>
       </c>
-      <c r="J90" t="inlineStr">
+      <c r="K90" t="inlineStr">
         <is>
           <t>（無言で頷く）</t>
         </is>
@@ -1906,22 +1911,22 @@
       </c>
     </row>
     <row r="92">
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
         <is>
           <t>lily_r7</t>
         </is>
       </c>
-      <c r="I92" t="inlineStr">
+      <c r="J92" t="inlineStr">
         <is>
           <t>……ふふ、やっぱり、あなたはそう言ってくれるのですね。</t>
         </is>
       </c>
-      <c r="J92" t="inlineStr">
+      <c r="K92" t="inlineStr">
         <is>
           <t>……ふふ、やっぱり、あなたはそう言ってくれるのですね。</t>
         </is>
@@ -1942,22 +1947,22 @@
       </c>
     </row>
     <row r="95">
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>narr_11</t>
         </is>
       </c>
-      <c r="I95" t="inlineStr">
+      <c r="J95" t="inlineStr">
         <is>
           <t>（リリィは涙を流し、微笑む。）</t>
         </is>
       </c>
-      <c r="J95" t="inlineStr">
+      <c r="K95" t="inlineStr">
         <is>
           <t>（リリィは涙を流し、微笑む。）</t>
         </is>
@@ -1978,22 +1983,22 @@
       </c>
     </row>
     <row r="98">
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
         <is>
           <t>lily_r9</t>
         </is>
       </c>
-      <c r="I98" t="inlineStr">
+      <c r="J98" t="inlineStr">
         <is>
           <t>……無口ですが、その瞳は真剣ですね。では、お伝えします。</t>
         </is>
       </c>
-      <c r="J98" t="inlineStr">
+      <c r="K98" t="inlineStr">
         <is>
           <t>……無口ですが、その瞳は真剣ですね。では、お伝えします。</t>
         </is>
@@ -2014,73 +2019,73 @@
       </c>
     </row>
     <row r="101">
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
         <is>
           <t>lily_12</t>
         </is>
       </c>
-      <c r="I101" t="inlineStr">
+      <c r="J101" t="inlineStr">
         <is>
           <t>……私の名は、『リリシエル・サングイス・ルナエ（Lilithiel Sanguis Lunae）』。</t>
         </is>
       </c>
-      <c r="J101" t="inlineStr">
+      <c r="K101" t="inlineStr">
         <is>
           <t>……私の名は、『リリシエル・サングイス・ルナエ（Lilithiel Sanguis Lunae）』。</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
         <is>
           <t>lily_14</t>
         </is>
       </c>
-      <c r="I103" t="inlineStr">
+      <c r="J103" t="inlineStr">
         <is>
           <t>これからは、単なるあなたのマネージャーとしてではなく……</t>
         </is>
       </c>
-      <c r="J103" t="inlineStr">
+      <c r="K103" t="inlineStr">
         <is>
           <t>これからは、単なるあなたのマネージャーとしてではなく……</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
         <is>
           <t>lily_15</t>
         </is>
       </c>
-      <c r="I104" t="inlineStr">
+      <c r="J104" t="inlineStr">
         <is>
           <t>あなたの行く末を地獄の果てまで共にする、『共犯者』として隣に置かせてちょうだい。</t>
         </is>
       </c>
-      <c r="J104" t="inlineStr">
+      <c r="K104" t="inlineStr">
         <is>
           <t>あなたの行く末を地獄の果てまで共にする、『共犯者』として隣に置かせてちょうだい。</t>
         </is>
@@ -2101,146 +2106,146 @@
       </c>
     </row>
     <row r="107">
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>narr_13</t>
         </is>
       </c>
-      <c r="I107" t="inlineStr">
+      <c r="J107" t="inlineStr">
         <is>
           <t>（彼女の真名が告げられた瞬間、あなたの視界に未知のルーンが浮かび上がり、リリィの魔力があなたの体内に流れ込んでくる。）</t>
         </is>
       </c>
-      <c r="J107" t="inlineStr">
+      <c r="K107" t="inlineStr">
         <is>
           <t>（彼女の真名が告げられた瞬間、あなたの視界に未知のルーンが浮かび上がり、リリィの魔力があなたの体内に流れ込んでくる。）</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="D108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>narr_14</t>
         </is>
       </c>
-      <c r="I109" t="inlineStr">
+      <c r="J109" t="inlineStr">
         <is>
           <t>（それは契約であり、守護であり、深い愛情の証だった。）</t>
         </is>
       </c>
-      <c r="J109" t="inlineStr">
+      <c r="K109" t="inlineStr">
         <is>
           <t>（それは契約であり、守護であり、深い愛情の証だった。）</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
         <is>
           <t>lily_16</t>
         </is>
       </c>
-      <c r="I110" t="inlineStr">
+      <c r="J110" t="inlineStr">
         <is>
           <t>……ふふ、これで逃げられなくなりましたね。</t>
         </is>
       </c>
-      <c r="J110" t="inlineStr">
+      <c r="K110" t="inlineStr">
         <is>
           <t>……ふふ、これで逃げられなくなりましたね。</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
         <is>
           <t>lily_17</t>
         </is>
       </c>
-      <c r="I111" t="inlineStr">
+      <c r="J111" t="inlineStr">
         <is>
           <t>アスタロト様の待つ頂上で、何が起きようとも……あなたの背中は私が守ります。</t>
         </is>
       </c>
-      <c r="J111" t="inlineStr">
+      <c r="K111" t="inlineStr">
         <is>
           <t>アスタロト様の待つ頂上で、何が起きようとも……あなたの背中は私が守ります。</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>narr_15</t>
         </is>
       </c>
-      <c r="I112" t="inlineStr">
+      <c r="J112" t="inlineStr">
         <is>
           <t>（リリィはあなたの頬に手を添え、優しく口づけをする。）</t>
         </is>
       </c>
-      <c r="J112" t="inlineStr">
+      <c r="K112" t="inlineStr">
         <is>
           <t>（リリィはあなたの頬に手を添え、優しく口づけをする。）</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
         <is>
           <t>lily_18</t>
         </is>
       </c>
-      <c r="I114" t="inlineStr">
+      <c r="J114" t="inlineStr">
         <is>
           <t>さあ、行きましょう。あなたの伝説に、私の名前を添えて。</t>
         </is>
       </c>
-      <c r="J114" t="inlineStr">
+      <c r="K114" t="inlineStr">
         <is>
           <t>さあ、行きましょう。あなたの伝説に、私の名前を添えて。</t>
         </is>
@@ -2259,22 +2264,22 @@
           <t>final_thanks</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>c_final_thanks</t>
         </is>
       </c>
-      <c r="I116" t="inlineStr">
+      <c r="J116" t="inlineStr">
         <is>
           <t>……ありがとう、リリシエル</t>
         </is>
       </c>
-      <c r="J116" t="inlineStr">
+      <c r="K116" t="inlineStr">
         <is>
           <t>……ありがとう、リリシエル</t>
         </is>
@@ -2286,22 +2291,22 @@
           <t>final_protect</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t>c_final_protect</t>
         </is>
       </c>
-      <c r="I117" t="inlineStr">
+      <c r="J117" t="inlineStr">
         <is>
           <t>お前を、必ず守る</t>
         </is>
       </c>
-      <c r="J117" t="inlineStr">
+      <c r="K117" t="inlineStr">
         <is>
           <t>お前を、必ず守る</t>
         </is>
@@ -2313,22 +2318,22 @@
           <t>final_embrace</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
+      <c r="I118" t="inlineStr">
         <is>
           <t>c_final_embrace</t>
         </is>
       </c>
-      <c r="I118" t="inlineStr">
+      <c r="J118" t="inlineStr">
         <is>
           <t>（抱きしめる）</t>
         </is>
       </c>
-      <c r="J118" t="inlineStr">
+      <c r="K118" t="inlineStr">
         <is>
           <t>（抱きしめる）</t>
         </is>
@@ -2342,22 +2347,22 @@
       </c>
     </row>
     <row r="120">
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
         <is>
           <t>lily_r10</t>
         </is>
       </c>
-      <c r="I120" t="inlineStr">
+      <c r="J120" t="inlineStr">
         <is>
           <t>その名で呼ばれるのは、初めてです。……嬉しいわ。</t>
         </is>
       </c>
-      <c r="J120" t="inlineStr">
+      <c r="K120" t="inlineStr">
         <is>
           <t>その名で呼ばれるのは、初めてです。……嬉しいわ。</t>
         </is>
@@ -2378,22 +2383,22 @@
       </c>
     </row>
     <row r="123">
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
         <is>
           <t>lily_r11</t>
         </is>
       </c>
-      <c r="I123" t="inlineStr">
+      <c r="J123" t="inlineStr">
         <is>
           <t>ふふ、守るのは私の役目ですよ。でも……ありがとう。</t>
         </is>
       </c>
-      <c r="J123" t="inlineStr">
+      <c r="K123" t="inlineStr">
         <is>
           <t>ふふ、守るのは私の役目ですよ。でも……ありがとう。</t>
         </is>
@@ -2414,22 +2419,22 @@
       </c>
     </row>
     <row r="126">
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
         <is>
           <t>lily_r12</t>
         </is>
       </c>
-      <c r="I126" t="inlineStr">
+      <c r="J126" t="inlineStr">
         <is>
           <t>……あぁ、温かい。あなたの温もりが、私を満たしてくれる……。</t>
         </is>
       </c>
-      <c r="J126" t="inlineStr">
+      <c r="K126" t="inlineStr">
         <is>
           <t>……あぁ、温かい。あなたの温もりが、私を満たしてくれる……。</t>
         </is>
@@ -2450,82 +2455,82 @@
       </c>
     </row>
     <row r="129">
-      <c r="D129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>chitsii.arena.player.lily_true_name,1</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="H130" t="inlineStr">
+      <c r="I130" t="inlineStr">
         <is>
           <t>sys_buff</t>
         </is>
       </c>
-      <c r="I130" t="inlineStr">
+      <c r="J130" t="inlineStr">
         <is>
           <t>【システム】『真名の絆』を獲得しました。魔力+10、精神耐性+20、魅了耐性+20 の加護を得た！</t>
         </is>
       </c>
-      <c r="J130" t="inlineStr">
+      <c r="K130" t="inlineStr">
         <is>
           <t>【システム】『真名の絆』を獲得しました。魔力+10、精神耐性+20、魅了耐性+20 の加護を得た！</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="H131" t="inlineStr">
+      <c r="I131" t="inlineStr">
         <is>
           <t>sys_title</t>
         </is>
       </c>
-      <c r="I131" t="inlineStr">
+      <c r="J131" t="inlineStr">
         <is>
           <t>【システム】称号『リリシエルの伴侶』を獲得しました。</t>
         </is>
       </c>
-      <c r="J131" t="inlineStr">
+      <c r="K131" t="inlineStr">
         <is>
           <t>【システム】称号『リリシエルの伴侶』を獲得しました。</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="D132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>Elin_SukutsuArena.ArenaManager.GrantLilyRealNameBonus();</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="D133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>modInvoke</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>complete_quest(16_lily_real_name)</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="D134" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>end</t>
         </is>
